--- a/StarSeeker/operator/samples/point.xlsx
+++ b/StarSeeker/operator/samples/point.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\home\yuta\work\StarSeeker\StarSeeker\operator\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668DD593-9EF7-4CFA-8A12-3092B71E6337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1880FBE-F614-4D0C-98CA-C87238C0AB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="point" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5841" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5852" uniqueCount="928">
   <si>
     <t>Park</t>
     <phoneticPr fontId="18"/>
@@ -3062,6 +3062,30 @@
   <si>
     <t>NULL</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>公共施設</t>
+    <rPh sb="0" eb="4">
+      <t>コウキョウシセツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>行政施設</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シセツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>水域情報</t>
   </si>
 </sst>
 </file>
@@ -4016,21 +4040,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE7E1A7-62FD-4099-9B5E-18F99C0F2395}">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="3" width="28.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="13.296875" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" customWidth="1"/>
+    <col min="8" max="8" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>922</v>
       </c>
@@ -4041,82 +4068,85 @@
         <v>64</v>
       </c>
       <c r="D1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>49</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>48</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>46</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>44</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -4127,46 +4157,49 @@
         <v>923</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>6</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -4177,46 +4210,49 @@
         <v>923</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>925</v>
       </c>
       <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>6</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -4227,46 +4263,49 @@
         <v>923</v>
       </c>
       <c r="D4" t="s">
+        <v>926</v>
+      </c>
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>7</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>6</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -4277,46 +4316,49 @@
         <v>923</v>
       </c>
       <c r="D5" t="s">
+        <v>926</v>
+      </c>
+      <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>7</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>13</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>6</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4327,46 +4369,49 @@
         <v>923</v>
       </c>
       <c r="D6" t="s">
+        <v>926</v>
+      </c>
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>7</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>13</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>6</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -4377,46 +4422,49 @@
         <v>923</v>
       </c>
       <c r="D7" t="s">
+        <v>926</v>
+      </c>
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>14</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>7</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>13</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>6</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -4427,58 +4475,61 @@
         <v>919</v>
       </c>
       <c r="D8" t="s">
+        <v>927</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>9</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>7</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>13</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>6</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>12</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>11</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -4489,58 +4540,61 @@
         <v>919</v>
       </c>
       <c r="D9" t="s">
+        <v>927</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>14</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>7</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>13</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>6</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>2</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>12</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>11</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -4551,58 +4605,61 @@
         <v>919</v>
       </c>
       <c r="D10" t="s">
+        <v>927</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>7</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
       <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>13</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>6</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>2</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>12</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>11</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -4613,54 +4670,57 @@
         <v>919</v>
       </c>
       <c r="D11" t="s">
+        <v>927</v>
+      </c>
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>8</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>9</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>14</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>7</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>13</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>6</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>2</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>12</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>11</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>3</v>
       </c>
     </row>
@@ -4675,19 +4735,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D129BF4-D909-4CA4-A86B-5345CABF7AE3}">
   <dimension ref="A1:G842"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="13.296875" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>917</v>
       </c>
@@ -4710,7 +4772,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>909</v>
       </c>
@@ -4733,7 +4795,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>909</v>
       </c>
@@ -4756,7 +4818,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>909</v>
       </c>
@@ -4779,7 +4841,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>909</v>
       </c>
@@ -4802,7 +4864,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>905</v>
       </c>
@@ -4825,7 +4887,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>905</v>
       </c>
@@ -4848,7 +4910,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>905</v>
       </c>
@@ -4871,7 +4933,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>905</v>
       </c>
@@ -4894,7 +4956,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>901</v>
       </c>
@@ -4917,7 +4979,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>901</v>
       </c>
@@ -4940,7 +5002,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>901</v>
       </c>
@@ -4963,7 +5025,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>901</v>
       </c>
@@ -4986,7 +5048,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>897</v>
       </c>
@@ -5009,7 +5071,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>897</v>
       </c>
@@ -5032,7 +5094,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>897</v>
       </c>
@@ -5055,7 +5117,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>897</v>
       </c>
@@ -5078,7 +5140,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>893</v>
       </c>
@@ -5101,7 +5163,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>893</v>
       </c>
@@ -5124,7 +5186,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>893</v>
       </c>
@@ -5147,7 +5209,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>893</v>
       </c>
@@ -5170,7 +5232,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>889</v>
       </c>
@@ -5193,7 +5255,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>889</v>
       </c>
@@ -5216,7 +5278,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>889</v>
       </c>
@@ -5239,7 +5301,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>889</v>
       </c>
@@ -5262,7 +5324,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>885</v>
       </c>
@@ -5285,7 +5347,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>885</v>
       </c>
@@ -5308,7 +5370,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>885</v>
       </c>
@@ -5331,7 +5393,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>885</v>
       </c>
@@ -5354,7 +5416,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>881</v>
       </c>
@@ -5377,7 +5439,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>881</v>
       </c>
@@ -5400,7 +5462,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>881</v>
       </c>
@@ -5423,7 +5485,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>881</v>
       </c>
@@ -5446,7 +5508,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>877</v>
       </c>
@@ -5469,7 +5531,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>877</v>
       </c>
@@ -5492,7 +5554,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>877</v>
       </c>
@@ -5515,7 +5577,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>877</v>
       </c>
@@ -5538,7 +5600,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>873</v>
       </c>
@@ -5561,7 +5623,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>873</v>
       </c>
@@ -5584,7 +5646,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>873</v>
       </c>
@@ -5607,7 +5669,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>873</v>
       </c>
@@ -5630,7 +5692,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>869</v>
       </c>
@@ -5653,7 +5715,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>869</v>
       </c>
@@ -5676,7 +5738,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>869</v>
       </c>
@@ -5699,7 +5761,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>869</v>
       </c>
@@ -5722,7 +5784,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>865</v>
       </c>
@@ -5745,7 +5807,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>865</v>
       </c>
@@ -5768,7 +5830,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>865</v>
       </c>
@@ -5791,7 +5853,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>865</v>
       </c>
@@ -5814,7 +5876,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>861</v>
       </c>
@@ -5837,7 +5899,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>861</v>
       </c>
@@ -5860,7 +5922,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>861</v>
       </c>
@@ -5883,7 +5945,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>861</v>
       </c>
@@ -5906,7 +5968,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>857</v>
       </c>
@@ -5929,7 +5991,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>857</v>
       </c>
@@ -5952,7 +6014,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>857</v>
       </c>
@@ -5975,7 +6037,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>857</v>
       </c>
@@ -5998,7 +6060,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>853</v>
       </c>
@@ -6021,7 +6083,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>853</v>
       </c>
@@ -6044,7 +6106,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>853</v>
       </c>
@@ -6067,7 +6129,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>853</v>
       </c>
@@ -6090,7 +6152,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>849</v>
       </c>
@@ -6113,7 +6175,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>849</v>
       </c>
@@ -6136,7 +6198,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>849</v>
       </c>
@@ -6159,7 +6221,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>849</v>
       </c>
@@ -6182,7 +6244,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>845</v>
       </c>
@@ -6205,7 +6267,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>845</v>
       </c>
@@ -6228,7 +6290,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>845</v>
       </c>
@@ -6251,7 +6313,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>845</v>
       </c>
@@ -6274,7 +6336,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>841</v>
       </c>
@@ -6297,7 +6359,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>841</v>
       </c>
@@ -6320,7 +6382,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>841</v>
       </c>
@@ -6343,7 +6405,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>841</v>
       </c>
@@ -6366,7 +6428,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>837</v>
       </c>
@@ -6389,7 +6451,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>837</v>
       </c>
@@ -6412,7 +6474,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>837</v>
       </c>
@@ -6435,7 +6497,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>837</v>
       </c>
@@ -6458,7 +6520,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>833</v>
       </c>
@@ -6481,7 +6543,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>833</v>
       </c>
@@ -6504,7 +6566,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>833</v>
       </c>
@@ -6527,7 +6589,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>833</v>
       </c>
@@ -6550,7 +6612,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>829</v>
       </c>
@@ -6573,7 +6635,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>829</v>
       </c>
@@ -6596,7 +6658,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>829</v>
       </c>
@@ -6619,7 +6681,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>829</v>
       </c>
@@ -6642,7 +6704,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>825</v>
       </c>
@@ -6665,7 +6727,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>825</v>
       </c>
@@ -6688,7 +6750,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>825</v>
       </c>
@@ -6711,7 +6773,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>825</v>
       </c>
@@ -6734,7 +6796,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>821</v>
       </c>
@@ -6757,7 +6819,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>821</v>
       </c>
@@ -6780,7 +6842,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>821</v>
       </c>
@@ -6803,7 +6865,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>821</v>
       </c>
@@ -6826,7 +6888,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>817</v>
       </c>
@@ -6849,7 +6911,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>817</v>
       </c>
@@ -6872,7 +6934,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>817</v>
       </c>
@@ -6895,7 +6957,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>817</v>
       </c>
@@ -6918,7 +6980,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>813</v>
       </c>
@@ -6941,7 +7003,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>813</v>
       </c>
@@ -6964,7 +7026,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>813</v>
       </c>
@@ -6987,7 +7049,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>813</v>
       </c>
@@ -7010,7 +7072,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>809</v>
       </c>
@@ -7033,7 +7095,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>809</v>
       </c>
@@ -7056,7 +7118,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>809</v>
       </c>
@@ -7079,7 +7141,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>809</v>
       </c>
@@ -7102,7 +7164,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>805</v>
       </c>
@@ -7125,7 +7187,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>805</v>
       </c>
@@ -7148,7 +7210,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>805</v>
       </c>
@@ -7171,7 +7233,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>805</v>
       </c>
@@ -7194,7 +7256,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>801</v>
       </c>
@@ -7217,7 +7279,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>801</v>
       </c>
@@ -7240,7 +7302,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>801</v>
       </c>
@@ -7263,7 +7325,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>801</v>
       </c>
@@ -7286,7 +7348,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>797</v>
       </c>
@@ -7309,7 +7371,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>797</v>
       </c>
@@ -7332,7 +7394,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>797</v>
       </c>
@@ -7355,7 +7417,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>797</v>
       </c>
@@ -7378,7 +7440,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>793</v>
       </c>
@@ -7401,7 +7463,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>793</v>
       </c>
@@ -7424,7 +7486,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>793</v>
       </c>
@@ -7447,7 +7509,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>793</v>
       </c>
@@ -7470,7 +7532,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>789</v>
       </c>
@@ -7493,7 +7555,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>789</v>
       </c>
@@ -7516,7 +7578,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>789</v>
       </c>
@@ -7539,7 +7601,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>789</v>
       </c>
@@ -7562,7 +7624,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>785</v>
       </c>
@@ -7585,7 +7647,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>785</v>
       </c>
@@ -7608,7 +7670,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>785</v>
       </c>
@@ -7631,7 +7693,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>785</v>
       </c>
@@ -7654,7 +7716,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>781</v>
       </c>
@@ -7677,7 +7739,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>781</v>
       </c>
@@ -7700,7 +7762,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>781</v>
       </c>
@@ -7723,7 +7785,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>781</v>
       </c>
@@ -7746,7 +7808,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>777</v>
       </c>
@@ -7769,7 +7831,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>777</v>
       </c>
@@ -7792,7 +7854,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>777</v>
       </c>
@@ -7815,7 +7877,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>777</v>
       </c>
@@ -7838,7 +7900,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>773</v>
       </c>
@@ -7861,7 +7923,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>773</v>
       </c>
@@ -7884,7 +7946,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>773</v>
       </c>
@@ -7907,7 +7969,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>773</v>
       </c>
@@ -7930,7 +7992,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>769</v>
       </c>
@@ -7953,7 +8015,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>769</v>
       </c>
@@ -7976,7 +8038,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>769</v>
       </c>
@@ -7999,7 +8061,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>769</v>
       </c>
@@ -8022,7 +8084,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>765</v>
       </c>
@@ -8045,7 +8107,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>765</v>
       </c>
@@ -8068,7 +8130,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>765</v>
       </c>
@@ -8091,7 +8153,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>765</v>
       </c>
@@ -8114,7 +8176,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>761</v>
       </c>
@@ -8137,7 +8199,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>761</v>
       </c>
@@ -8160,7 +8222,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>761</v>
       </c>
@@ -8183,7 +8245,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>761</v>
       </c>
@@ -8206,7 +8268,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>757</v>
       </c>
@@ -8229,7 +8291,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>757</v>
       </c>
@@ -8252,7 +8314,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>757</v>
       </c>
@@ -8275,7 +8337,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>757</v>
       </c>
@@ -8298,7 +8360,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>753</v>
       </c>
@@ -8321,7 +8383,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>753</v>
       </c>
@@ -8344,7 +8406,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>753</v>
       </c>
@@ -8367,7 +8429,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>753</v>
       </c>
@@ -8390,7 +8452,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>749</v>
       </c>
@@ -8413,7 +8475,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>749</v>
       </c>
@@ -8436,7 +8498,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>749</v>
       </c>
@@ -8459,7 +8521,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>749</v>
       </c>
@@ -8482,7 +8544,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>745</v>
       </c>
@@ -8505,7 +8567,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>745</v>
       </c>
@@ -8528,7 +8590,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>745</v>
       </c>
@@ -8551,7 +8613,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>745</v>
       </c>
@@ -8574,7 +8636,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>741</v>
       </c>
@@ -8597,7 +8659,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>741</v>
       </c>
@@ -8620,7 +8682,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>741</v>
       </c>
@@ -8643,7 +8705,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>741</v>
       </c>
@@ -8666,7 +8728,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>737</v>
       </c>
@@ -8689,7 +8751,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>737</v>
       </c>
@@ -8712,7 +8774,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>737</v>
       </c>
@@ -8735,7 +8797,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>737</v>
       </c>
@@ -8758,7 +8820,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>733</v>
       </c>
@@ -8781,7 +8843,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>733</v>
       </c>
@@ -8804,7 +8866,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>733</v>
       </c>
@@ -8827,7 +8889,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>733</v>
       </c>
@@ -8850,7 +8912,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>729</v>
       </c>
@@ -8873,7 +8935,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>729</v>
       </c>
@@ -8896,7 +8958,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>729</v>
       </c>
@@ -8919,7 +8981,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>729</v>
       </c>
@@ -8942,7 +9004,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>725</v>
       </c>
@@ -8965,7 +9027,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>725</v>
       </c>
@@ -8988,7 +9050,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>725</v>
       </c>
@@ -9011,7 +9073,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>725</v>
       </c>
@@ -9034,7 +9096,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>721</v>
       </c>
@@ -9057,7 +9119,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>721</v>
       </c>
@@ -9080,7 +9142,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>721</v>
       </c>
@@ -9103,7 +9165,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>721</v>
       </c>
@@ -9126,7 +9188,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>717</v>
       </c>
@@ -9149,7 +9211,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>717</v>
       </c>
@@ -9172,7 +9234,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>717</v>
       </c>
@@ -9195,7 +9257,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>717</v>
       </c>
@@ -9218,7 +9280,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>713</v>
       </c>
@@ -9241,7 +9303,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>713</v>
       </c>
@@ -9264,7 +9326,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>713</v>
       </c>
@@ -9287,7 +9349,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>713</v>
       </c>
@@ -9310,7 +9372,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>709</v>
       </c>
@@ -9333,7 +9395,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>709</v>
       </c>
@@ -9356,7 +9418,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>709</v>
       </c>
@@ -9379,7 +9441,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>709</v>
       </c>
@@ -9402,7 +9464,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>705</v>
       </c>
@@ -9425,7 +9487,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>705</v>
       </c>
@@ -9448,7 +9510,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>705</v>
       </c>
@@ -9471,7 +9533,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>705</v>
       </c>
@@ -9494,7 +9556,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>701</v>
       </c>
@@ -9517,7 +9579,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>701</v>
       </c>
@@ -9540,7 +9602,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>701</v>
       </c>
@@ -9563,7 +9625,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>701</v>
       </c>
@@ -9586,7 +9648,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>697</v>
       </c>
@@ -9609,7 +9671,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>697</v>
       </c>
@@ -9632,7 +9694,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>697</v>
       </c>
@@ -9655,7 +9717,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>697</v>
       </c>
@@ -9678,7 +9740,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>693</v>
       </c>
@@ -9701,7 +9763,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>693</v>
       </c>
@@ -9724,7 +9786,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>693</v>
       </c>
@@ -9747,7 +9809,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>693</v>
       </c>
@@ -9770,7 +9832,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>689</v>
       </c>
@@ -9793,7 +9855,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>689</v>
       </c>
@@ -9816,7 +9878,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>689</v>
       </c>
@@ -9839,7 +9901,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>689</v>
       </c>
@@ -9862,7 +9924,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>685</v>
       </c>
@@ -9885,7 +9947,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>685</v>
       </c>
@@ -9908,7 +9970,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>685</v>
       </c>
@@ -9931,7 +9993,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>685</v>
       </c>
@@ -9954,7 +10016,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>681</v>
       </c>
@@ -9977,7 +10039,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>681</v>
       </c>
@@ -10000,7 +10062,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>681</v>
       </c>
@@ -10023,7 +10085,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>681</v>
       </c>
@@ -10046,7 +10108,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>677</v>
       </c>
@@ -10069,7 +10131,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>677</v>
       </c>
@@ -10092,7 +10154,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>677</v>
       </c>
@@ -10115,7 +10177,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>677</v>
       </c>
@@ -10138,7 +10200,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>673</v>
       </c>
@@ -10161,7 +10223,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>673</v>
       </c>
@@ -10184,7 +10246,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>673</v>
       </c>
@@ -10207,7 +10269,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>673</v>
       </c>
@@ -10230,7 +10292,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>669</v>
       </c>
@@ -10253,7 +10315,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>669</v>
       </c>
@@ -10276,7 +10338,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>669</v>
       </c>
@@ -10299,7 +10361,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>669</v>
       </c>
@@ -10322,7 +10384,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>665</v>
       </c>
@@ -10345,7 +10407,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>665</v>
       </c>
@@ -10368,7 +10430,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>665</v>
       </c>
@@ -10391,7 +10453,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>665</v>
       </c>
@@ -10414,7 +10476,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>661</v>
       </c>
@@ -10437,7 +10499,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>661</v>
       </c>
@@ -10460,7 +10522,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>661</v>
       </c>
@@ -10483,7 +10545,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>661</v>
       </c>
@@ -10506,7 +10568,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>657</v>
       </c>
@@ -10529,7 +10591,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>657</v>
       </c>
@@ -10552,7 +10614,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>657</v>
       </c>
@@ -10575,7 +10637,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>657</v>
       </c>
@@ -10598,7 +10660,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>653</v>
       </c>
@@ -10621,7 +10683,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>653</v>
       </c>
@@ -10644,7 +10706,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>653</v>
       </c>
@@ -10667,7 +10729,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>653</v>
       </c>
@@ -10690,7 +10752,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>649</v>
       </c>
@@ -10713,7 +10775,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>649</v>
       </c>
@@ -10736,7 +10798,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>649</v>
       </c>
@@ -10759,7 +10821,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>649</v>
       </c>
@@ -10782,7 +10844,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>645</v>
       </c>
@@ -10805,7 +10867,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>645</v>
       </c>
@@ -10828,7 +10890,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>645</v>
       </c>
@@ -10851,7 +10913,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>645</v>
       </c>
@@ -10874,7 +10936,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>641</v>
       </c>
@@ -10897,7 +10959,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>641</v>
       </c>
@@ -10920,7 +10982,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>641</v>
       </c>
@@ -10943,7 +11005,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>641</v>
       </c>
@@ -10966,7 +11028,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>637</v>
       </c>
@@ -10989,7 +11051,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>637</v>
       </c>
@@ -11012,7 +11074,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>637</v>
       </c>
@@ -11035,7 +11097,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>637</v>
       </c>
@@ -11058,7 +11120,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>633</v>
       </c>
@@ -11081,7 +11143,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>633</v>
       </c>
@@ -11104,7 +11166,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>633</v>
       </c>
@@ -11127,7 +11189,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>633</v>
       </c>
@@ -11150,7 +11212,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>629</v>
       </c>
@@ -11173,7 +11235,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>629</v>
       </c>
@@ -11196,7 +11258,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>629</v>
       </c>
@@ -11219,7 +11281,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>629</v>
       </c>
@@ -11242,7 +11304,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>625</v>
       </c>
@@ -11265,7 +11327,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>625</v>
       </c>
@@ -11288,7 +11350,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>625</v>
       </c>
@@ -11311,7 +11373,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>625</v>
       </c>
@@ -11334,7 +11396,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>621</v>
       </c>
@@ -11357,7 +11419,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>621</v>
       </c>
@@ -11380,7 +11442,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>621</v>
       </c>
@@ -11403,7 +11465,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>621</v>
       </c>
@@ -11426,7 +11488,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>617</v>
       </c>
@@ -11449,7 +11511,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>617</v>
       </c>
@@ -11472,7 +11534,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>617</v>
       </c>
@@ -11495,7 +11557,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>617</v>
       </c>
@@ -11518,7 +11580,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>613</v>
       </c>
@@ -11541,7 +11603,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>613</v>
       </c>
@@ -11564,7 +11626,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>613</v>
       </c>
@@ -11587,7 +11649,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>613</v>
       </c>
@@ -11610,7 +11672,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>609</v>
       </c>
@@ -11633,7 +11695,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>609</v>
       </c>
@@ -11656,7 +11718,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>609</v>
       </c>
@@ -11679,7 +11741,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>609</v>
       </c>
@@ -11702,7 +11764,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>605</v>
       </c>
@@ -11725,7 +11787,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>605</v>
       </c>
@@ -11748,7 +11810,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>605</v>
       </c>
@@ -11771,7 +11833,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>605</v>
       </c>
@@ -11794,7 +11856,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>601</v>
       </c>
@@ -11817,7 +11879,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>601</v>
       </c>
@@ -11840,7 +11902,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>601</v>
       </c>
@@ -11863,7 +11925,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>601</v>
       </c>
@@ -11886,7 +11948,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>597</v>
       </c>
@@ -11909,7 +11971,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>597</v>
       </c>
@@ -11932,7 +11994,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>597</v>
       </c>
@@ -11955,7 +12017,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>597</v>
       </c>
@@ -11978,7 +12040,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>593</v>
       </c>
@@ -12001,7 +12063,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>593</v>
       </c>
@@ -12024,7 +12086,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>593</v>
       </c>
@@ -12047,7 +12109,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>593</v>
       </c>
@@ -12070,7 +12132,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>589</v>
       </c>
@@ -12093,7 +12155,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>589</v>
       </c>
@@ -12116,7 +12178,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>589</v>
       </c>
@@ -12139,7 +12201,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>589</v>
       </c>
@@ -12162,7 +12224,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>585</v>
       </c>
@@ -12185,7 +12247,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>585</v>
       </c>
@@ -12208,7 +12270,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>585</v>
       </c>
@@ -12231,7 +12293,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>585</v>
       </c>
@@ -12254,7 +12316,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>581</v>
       </c>
@@ -12277,7 +12339,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>581</v>
       </c>
@@ -12300,7 +12362,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>581</v>
       </c>
@@ -12323,7 +12385,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>581</v>
       </c>
@@ -12346,7 +12408,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>577</v>
       </c>
@@ -12369,7 +12431,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>577</v>
       </c>
@@ -12392,7 +12454,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>577</v>
       </c>
@@ -12415,7 +12477,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>577</v>
       </c>
@@ -12438,7 +12500,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>573</v>
       </c>
@@ -12461,7 +12523,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>573</v>
       </c>
@@ -12484,7 +12546,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>573</v>
       </c>
@@ -12507,7 +12569,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>573</v>
       </c>
@@ -12530,7 +12592,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>569</v>
       </c>
@@ -12553,7 +12615,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>569</v>
       </c>
@@ -12576,7 +12638,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>569</v>
       </c>
@@ -12599,7 +12661,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>569</v>
       </c>
@@ -12622,7 +12684,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>565</v>
       </c>
@@ -12645,7 +12707,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>565</v>
       </c>
@@ -12668,7 +12730,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>565</v>
       </c>
@@ -12691,7 +12753,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>565</v>
       </c>
@@ -12714,7 +12776,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>561</v>
       </c>
@@ -12737,7 +12799,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>561</v>
       </c>
@@ -12760,7 +12822,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>561</v>
       </c>
@@ -12783,7 +12845,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>561</v>
       </c>
@@ -12806,7 +12868,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>557</v>
       </c>
@@ -12829,7 +12891,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>557</v>
       </c>
@@ -12852,7 +12914,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>557</v>
       </c>
@@ -12875,7 +12937,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>557</v>
       </c>
@@ -12898,7 +12960,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>553</v>
       </c>
@@ -12921,7 +12983,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>553</v>
       </c>
@@ -12944,7 +13006,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>553</v>
       </c>
@@ -12967,7 +13029,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>553</v>
       </c>
@@ -12990,7 +13052,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>549</v>
       </c>
@@ -13013,7 +13075,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>549</v>
       </c>
@@ -13036,7 +13098,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>549</v>
       </c>
@@ -13059,7 +13121,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>549</v>
       </c>
@@ -13082,7 +13144,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>545</v>
       </c>
@@ -13105,7 +13167,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>545</v>
       </c>
@@ -13128,7 +13190,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>545</v>
       </c>
@@ -13151,7 +13213,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>545</v>
       </c>
@@ -13174,7 +13236,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>541</v>
       </c>
@@ -13197,7 +13259,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>541</v>
       </c>
@@ -13220,7 +13282,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>541</v>
       </c>
@@ -13243,7 +13305,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>541</v>
       </c>
@@ -13266,7 +13328,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>537</v>
       </c>
@@ -13289,7 +13351,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>537</v>
       </c>
@@ -13312,7 +13374,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>537</v>
       </c>
@@ -13335,7 +13397,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>537</v>
       </c>
@@ -13358,7 +13420,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>533</v>
       </c>
@@ -13381,7 +13443,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>533</v>
       </c>
@@ -13404,7 +13466,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>533</v>
       </c>
@@ -13427,7 +13489,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>533</v>
       </c>
@@ -13450,7 +13512,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>529</v>
       </c>
@@ -13473,7 +13535,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>529</v>
       </c>
@@ -13496,7 +13558,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>529</v>
       </c>
@@ -13519,7 +13581,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>529</v>
       </c>
@@ -13542,7 +13604,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>525</v>
       </c>
@@ -13565,7 +13627,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>525</v>
       </c>
@@ -13588,7 +13650,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>525</v>
       </c>
@@ -13611,7 +13673,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>525</v>
       </c>
@@ -13634,7 +13696,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>521</v>
       </c>
@@ -13657,7 +13719,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>521</v>
       </c>
@@ -13680,7 +13742,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>521</v>
       </c>
@@ -13703,7 +13765,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>521</v>
       </c>
@@ -13726,7 +13788,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>517</v>
       </c>
@@ -13749,7 +13811,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>517</v>
       </c>
@@ -13772,7 +13834,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>517</v>
       </c>
@@ -13795,7 +13857,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>517</v>
       </c>
@@ -13818,7 +13880,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>513</v>
       </c>
@@ -13841,7 +13903,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>513</v>
       </c>
@@ -13864,7 +13926,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>513</v>
       </c>
@@ -13887,7 +13949,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>513</v>
       </c>
@@ -13910,7 +13972,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>509</v>
       </c>
@@ -13933,7 +13995,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>509</v>
       </c>
@@ -13956,7 +14018,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>509</v>
       </c>
@@ -13979,7 +14041,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>509</v>
       </c>
@@ -14002,7 +14064,7 @@
         <v>44437</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>505</v>
       </c>
@@ -14025,7 +14087,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>505</v>
       </c>
@@ -14048,7 +14110,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>505</v>
       </c>
@@ -14071,7 +14133,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>505</v>
       </c>
@@ -14094,7 +14156,7 @@
         <v>44437</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>501</v>
       </c>
@@ -14117,7 +14179,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>501</v>
       </c>
@@ -14140,7 +14202,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>501</v>
       </c>
@@ -14163,7 +14225,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>501</v>
       </c>
@@ -14186,7 +14248,7 @@
         <v>44437</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>497</v>
       </c>
@@ -14209,7 +14271,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>497</v>
       </c>
@@ -14232,7 +14294,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>497</v>
       </c>
@@ -14255,7 +14317,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>497</v>
       </c>
@@ -14278,7 +14340,7 @@
         <v>44437</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>493</v>
       </c>
@@ -14301,7 +14363,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>493</v>
       </c>
@@ -14324,7 +14386,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>493</v>
       </c>
@@ -14347,7 +14409,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>493</v>
       </c>
@@ -14370,7 +14432,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>489</v>
       </c>
@@ -14393,7 +14455,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>489</v>
       </c>
@@ -14416,7 +14478,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>489</v>
       </c>
@@ -14439,7 +14501,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>489</v>
       </c>
@@ -14462,7 +14524,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>485</v>
       </c>
@@ -14485,7 +14547,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>485</v>
       </c>
@@ -14508,7 +14570,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>485</v>
       </c>
@@ -14531,7 +14593,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>485</v>
       </c>
@@ -14554,7 +14616,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>481</v>
       </c>
@@ -14577,7 +14639,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>481</v>
       </c>
@@ -14600,7 +14662,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>481</v>
       </c>
@@ -14623,7 +14685,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>481</v>
       </c>
@@ -14646,7 +14708,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>477</v>
       </c>
@@ -14669,7 +14731,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>477</v>
       </c>
@@ -14692,7 +14754,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>477</v>
       </c>
@@ -14715,7 +14777,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>477</v>
       </c>
@@ -14738,7 +14800,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>473</v>
       </c>
@@ -14761,7 +14823,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>473</v>
       </c>
@@ -14784,7 +14846,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>473</v>
       </c>
@@ -14807,7 +14869,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>473</v>
       </c>
@@ -14830,7 +14892,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>469</v>
       </c>
@@ -14853,7 +14915,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>469</v>
       </c>
@@ -14876,7 +14938,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>469</v>
       </c>
@@ -14899,7 +14961,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>469</v>
       </c>
@@ -14922,7 +14984,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>465</v>
       </c>
@@ -14945,7 +15007,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>465</v>
       </c>
@@ -14968,7 +15030,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>465</v>
       </c>
@@ -14991,7 +15053,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>465</v>
       </c>
@@ -15014,7 +15076,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>461</v>
       </c>
@@ -15037,7 +15099,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>461</v>
       </c>
@@ -15060,7 +15122,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>461</v>
       </c>
@@ -15083,7 +15145,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>461</v>
       </c>
@@ -15106,7 +15168,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>457</v>
       </c>
@@ -15129,7 +15191,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>457</v>
       </c>
@@ -15152,7 +15214,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>457</v>
       </c>
@@ -15175,7 +15237,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>457</v>
       </c>
@@ -15198,7 +15260,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>453</v>
       </c>
@@ -15221,7 +15283,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>453</v>
       </c>
@@ -15244,7 +15306,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>453</v>
       </c>
@@ -15267,7 +15329,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>453</v>
       </c>
@@ -15290,7 +15352,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>449</v>
       </c>
@@ -15313,7 +15375,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>449</v>
       </c>
@@ -15336,7 +15398,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>449</v>
       </c>
@@ -15359,7 +15421,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>449</v>
       </c>
@@ -15382,7 +15444,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>445</v>
       </c>
@@ -15405,7 +15467,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>445</v>
       </c>
@@ -15428,7 +15490,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>445</v>
       </c>
@@ -15451,7 +15513,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>445</v>
       </c>
@@ -15474,7 +15536,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>441</v>
       </c>
@@ -15497,7 +15559,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>441</v>
       </c>
@@ -15520,7 +15582,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>441</v>
       </c>
@@ -15543,7 +15605,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>441</v>
       </c>
@@ -15566,7 +15628,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>437</v>
       </c>
@@ -15589,7 +15651,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>437</v>
       </c>
@@ -15612,7 +15674,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>437</v>
       </c>
@@ -15635,7 +15697,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>437</v>
       </c>
@@ -15658,7 +15720,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>433</v>
       </c>
@@ -15681,7 +15743,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>433</v>
       </c>
@@ -15704,7 +15766,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>433</v>
       </c>
@@ -15727,7 +15789,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>433</v>
       </c>
@@ -15750,7 +15812,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>429</v>
       </c>
@@ -15773,7 +15835,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>429</v>
       </c>
@@ -15796,7 +15858,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>429</v>
       </c>
@@ -15819,7 +15881,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>429</v>
       </c>
@@ -15842,7 +15904,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>425</v>
       </c>
@@ -15865,7 +15927,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>425</v>
       </c>
@@ -15888,7 +15950,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>425</v>
       </c>
@@ -15911,7 +15973,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>425</v>
       </c>
@@ -15934,7 +15996,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>421</v>
       </c>
@@ -15957,7 +16019,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>421</v>
       </c>
@@ -15980,7 +16042,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>421</v>
       </c>
@@ -16003,7 +16065,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>421</v>
       </c>
@@ -16026,7 +16088,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>417</v>
       </c>
@@ -16049,7 +16111,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>417</v>
       </c>
@@ -16072,7 +16134,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>417</v>
       </c>
@@ -16095,7 +16157,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>417</v>
       </c>
@@ -16118,7 +16180,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>413</v>
       </c>
@@ -16141,7 +16203,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>413</v>
       </c>
@@ -16164,7 +16226,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>413</v>
       </c>
@@ -16187,7 +16249,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>413</v>
       </c>
@@ -16210,7 +16272,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>409</v>
       </c>
@@ -16233,7 +16295,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>409</v>
       </c>
@@ -16256,7 +16318,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>409</v>
       </c>
@@ -16279,7 +16341,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>409</v>
       </c>
@@ -16302,7 +16364,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>405</v>
       </c>
@@ -16325,7 +16387,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>405</v>
       </c>
@@ -16348,7 +16410,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>405</v>
       </c>
@@ -16371,7 +16433,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>405</v>
       </c>
@@ -16394,7 +16456,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>401</v>
       </c>
@@ -16417,7 +16479,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>401</v>
       </c>
@@ -16440,7 +16502,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>401</v>
       </c>
@@ -16463,7 +16525,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>401</v>
       </c>
@@ -16486,7 +16548,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>397</v>
       </c>
@@ -16509,7 +16571,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>397</v>
       </c>
@@ -16532,7 +16594,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>397</v>
       </c>
@@ -16555,7 +16617,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>397</v>
       </c>
@@ -16578,7 +16640,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>393</v>
       </c>
@@ -16601,7 +16663,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>393</v>
       </c>
@@ -16624,7 +16686,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>393</v>
       </c>
@@ -16647,7 +16709,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>393</v>
       </c>
@@ -16670,7 +16732,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>389</v>
       </c>
@@ -16693,7 +16755,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>389</v>
       </c>
@@ -16716,7 +16778,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>389</v>
       </c>
@@ -16739,7 +16801,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>389</v>
       </c>
@@ -16762,7 +16824,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>385</v>
       </c>
@@ -16785,7 +16847,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>385</v>
       </c>
@@ -16808,7 +16870,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>385</v>
       </c>
@@ -16831,7 +16893,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>385</v>
       </c>
@@ -16854,7 +16916,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>381</v>
       </c>
@@ -16877,7 +16939,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>381</v>
       </c>
@@ -16900,7 +16962,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>381</v>
       </c>
@@ -16923,7 +16985,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>381</v>
       </c>
@@ -16946,7 +17008,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>377</v>
       </c>
@@ -16969,7 +17031,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>377</v>
       </c>
@@ -16992,7 +17054,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>377</v>
       </c>
@@ -17015,7 +17077,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>377</v>
       </c>
@@ -17038,7 +17100,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>373</v>
       </c>
@@ -17061,7 +17123,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>373</v>
       </c>
@@ -17084,7 +17146,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>373</v>
       </c>
@@ -17107,7 +17169,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>373</v>
       </c>
@@ -17130,7 +17192,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>369</v>
       </c>
@@ -17153,7 +17215,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>369</v>
       </c>
@@ -17176,7 +17238,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>369</v>
       </c>
@@ -17199,7 +17261,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>369</v>
       </c>
@@ -17222,7 +17284,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>365</v>
       </c>
@@ -17245,7 +17307,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>365</v>
       </c>
@@ -17268,7 +17330,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>365</v>
       </c>
@@ -17291,7 +17353,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>365</v>
       </c>
@@ -17314,7 +17376,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>361</v>
       </c>
@@ -17337,7 +17399,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>361</v>
       </c>
@@ -17360,7 +17422,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>361</v>
       </c>
@@ -17383,7 +17445,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>361</v>
       </c>
@@ -17406,7 +17468,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>357</v>
       </c>
@@ -17429,7 +17491,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>357</v>
       </c>
@@ -17452,7 +17514,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>357</v>
       </c>
@@ -17475,7 +17537,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>357</v>
       </c>
@@ -17498,7 +17560,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>353</v>
       </c>
@@ -17521,7 +17583,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>353</v>
       </c>
@@ -17544,7 +17606,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>353</v>
       </c>
@@ -17567,7 +17629,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>353</v>
       </c>
@@ -17590,7 +17652,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>349</v>
       </c>
@@ -17613,7 +17675,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>349</v>
       </c>
@@ -17636,7 +17698,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>349</v>
       </c>
@@ -17659,7 +17721,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>349</v>
       </c>
@@ -17682,7 +17744,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>345</v>
       </c>
@@ -17705,7 +17767,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>345</v>
       </c>
@@ -17728,7 +17790,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>345</v>
       </c>
@@ -17751,7 +17813,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>345</v>
       </c>
@@ -17774,7 +17836,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>341</v>
       </c>
@@ -17797,7 +17859,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>341</v>
       </c>
@@ -17820,7 +17882,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>341</v>
       </c>
@@ -17843,7 +17905,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>341</v>
       </c>
@@ -17866,7 +17928,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>337</v>
       </c>
@@ -17889,7 +17951,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>337</v>
       </c>
@@ -17912,7 +17974,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>337</v>
       </c>
@@ -17935,7 +17997,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>337</v>
       </c>
@@ -17958,7 +18020,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>333</v>
       </c>
@@ -17981,7 +18043,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>333</v>
       </c>
@@ -18004,7 +18066,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
         <v>333</v>
       </c>
@@ -18027,7 +18089,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
         <v>333</v>
       </c>
@@ -18050,7 +18112,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
         <v>329</v>
       </c>
@@ -18073,7 +18135,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
         <v>329</v>
       </c>
@@ -18096,7 +18158,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
         <v>329</v>
       </c>
@@ -18119,7 +18181,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
         <v>329</v>
       </c>
@@ -18142,7 +18204,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
         <v>325</v>
       </c>
@@ -18165,7 +18227,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
         <v>325</v>
       </c>
@@ -18188,7 +18250,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
         <v>325</v>
       </c>
@@ -18211,7 +18273,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
         <v>325</v>
       </c>
@@ -18234,7 +18296,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
         <v>321</v>
       </c>
@@ -18257,7 +18319,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
         <v>321</v>
       </c>
@@ -18280,7 +18342,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
         <v>321</v>
       </c>
@@ -18303,7 +18365,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
         <v>321</v>
       </c>
@@ -18326,7 +18388,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
         <v>317</v>
       </c>
@@ -18349,7 +18411,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
         <v>317</v>
       </c>
@@ -18372,7 +18434,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
         <v>317</v>
       </c>
@@ -18395,7 +18457,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
         <v>317</v>
       </c>
@@ -18418,7 +18480,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
         <v>313</v>
       </c>
@@ -18441,7 +18503,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
         <v>313</v>
       </c>
@@ -18464,7 +18526,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
         <v>313</v>
       </c>
@@ -18487,7 +18549,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
         <v>313</v>
       </c>
@@ -18510,7 +18572,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>309</v>
       </c>
@@ -18533,7 +18595,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
         <v>309</v>
       </c>
@@ -18556,7 +18618,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
         <v>309</v>
       </c>
@@ -18579,7 +18641,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
         <v>309</v>
       </c>
@@ -18602,7 +18664,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
         <v>305</v>
       </c>
@@ -18625,7 +18687,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
         <v>305</v>
       </c>
@@ -18648,7 +18710,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
         <v>305</v>
       </c>
@@ -18671,7 +18733,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
         <v>305</v>
       </c>
@@ -18694,7 +18756,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
         <v>301</v>
       </c>
@@ -18717,7 +18779,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
         <v>301</v>
       </c>
@@ -18740,7 +18802,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
         <v>301</v>
       </c>
@@ -18763,7 +18825,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
         <v>301</v>
       </c>
@@ -18786,7 +18848,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
         <v>297</v>
       </c>
@@ -18809,7 +18871,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
         <v>297</v>
       </c>
@@ -18832,7 +18894,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
         <v>297</v>
       </c>
@@ -18855,7 +18917,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
         <v>297</v>
       </c>
@@ -18878,7 +18940,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
         <v>293</v>
       </c>
@@ -18901,7 +18963,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
         <v>293</v>
       </c>
@@ -18924,7 +18986,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A620" t="s">
         <v>293</v>
       </c>
@@ -18947,7 +19009,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A621" t="s">
         <v>293</v>
       </c>
@@ -18970,7 +19032,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
         <v>289</v>
       </c>
@@ -18993,7 +19055,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
         <v>289</v>
       </c>
@@ -19016,7 +19078,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
         <v>289</v>
       </c>
@@ -19039,7 +19101,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
         <v>289</v>
       </c>
@@ -19062,7 +19124,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
         <v>285</v>
       </c>
@@ -19085,7 +19147,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
         <v>285</v>
       </c>
@@ -19108,7 +19170,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
         <v>285</v>
       </c>
@@ -19131,7 +19193,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
         <v>285</v>
       </c>
@@ -19154,7 +19216,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
         <v>281</v>
       </c>
@@ -19177,7 +19239,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
         <v>281</v>
       </c>
@@ -19200,7 +19262,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
         <v>281</v>
       </c>
@@ -19223,7 +19285,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
         <v>281</v>
       </c>
@@ -19246,7 +19308,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
         <v>277</v>
       </c>
@@ -19269,7 +19331,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
         <v>277</v>
       </c>
@@ -19292,7 +19354,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
         <v>277</v>
       </c>
@@ -19315,7 +19377,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
         <v>277</v>
       </c>
@@ -19338,7 +19400,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
         <v>273</v>
       </c>
@@ -19361,7 +19423,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
         <v>273</v>
       </c>
@@ -19384,7 +19446,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
         <v>273</v>
       </c>
@@ -19407,7 +19469,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
         <v>273</v>
       </c>
@@ -19430,7 +19492,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
         <v>269</v>
       </c>
@@ -19453,7 +19515,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
         <v>269</v>
       </c>
@@ -19476,7 +19538,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
         <v>269</v>
       </c>
@@ -19499,7 +19561,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
         <v>269</v>
       </c>
@@ -19522,7 +19584,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
         <v>265</v>
       </c>
@@ -19545,7 +19607,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
         <v>265</v>
       </c>
@@ -19568,7 +19630,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
         <v>265</v>
       </c>
@@ -19591,7 +19653,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
         <v>265</v>
       </c>
@@ -19614,7 +19676,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
         <v>261</v>
       </c>
@@ -19637,7 +19699,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
         <v>261</v>
       </c>
@@ -19660,7 +19722,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
         <v>261</v>
       </c>
@@ -19683,7 +19745,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
         <v>261</v>
       </c>
@@ -19706,7 +19768,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
         <v>257</v>
       </c>
@@ -19729,7 +19791,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
         <v>257</v>
       </c>
@@ -19752,7 +19814,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
         <v>257</v>
       </c>
@@ -19775,7 +19837,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A657" t="s">
         <v>257</v>
       </c>
@@ -19798,7 +19860,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
         <v>253</v>
       </c>
@@ -19821,7 +19883,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
         <v>253</v>
       </c>
@@ -19844,7 +19906,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
         <v>253</v>
       </c>
@@ -19867,7 +19929,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
         <v>253</v>
       </c>
@@ -19890,7 +19952,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
         <v>249</v>
       </c>
@@ -19913,7 +19975,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
         <v>249</v>
       </c>
@@ -19936,7 +19998,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
         <v>249</v>
       </c>
@@ -19959,7 +20021,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
         <v>249</v>
       </c>
@@ -19982,7 +20044,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
         <v>245</v>
       </c>
@@ -20005,7 +20067,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
         <v>245</v>
       </c>
@@ -20028,7 +20090,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
         <v>245</v>
       </c>
@@ -20051,7 +20113,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
         <v>245</v>
       </c>
@@ -20074,7 +20136,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
         <v>241</v>
       </c>
@@ -20097,7 +20159,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
         <v>241</v>
       </c>
@@ -20120,7 +20182,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
         <v>241</v>
       </c>
@@ -20143,7 +20205,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
         <v>241</v>
       </c>
@@ -20166,7 +20228,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
         <v>237</v>
       </c>
@@ -20189,7 +20251,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
         <v>237</v>
       </c>
@@ -20212,7 +20274,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
         <v>237</v>
       </c>
@@ -20235,7 +20297,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
         <v>237</v>
       </c>
@@ -20258,7 +20320,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
         <v>233</v>
       </c>
@@ -20281,7 +20343,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
         <v>233</v>
       </c>
@@ -20304,7 +20366,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
         <v>233</v>
       </c>
@@ -20327,7 +20389,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
         <v>233</v>
       </c>
@@ -20350,7 +20412,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
         <v>229</v>
       </c>
@@ -20373,7 +20435,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
         <v>229</v>
       </c>
@@ -20396,7 +20458,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A684" t="s">
         <v>229</v>
       </c>
@@ -20419,7 +20481,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
         <v>229</v>
       </c>
@@ -20442,7 +20504,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
         <v>225</v>
       </c>
@@ -20465,7 +20527,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
         <v>225</v>
       </c>
@@ -20488,7 +20550,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A688" t="s">
         <v>225</v>
       </c>
@@ -20511,7 +20573,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A689" t="s">
         <v>225</v>
       </c>
@@ -20534,7 +20596,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A690" t="s">
         <v>221</v>
       </c>
@@ -20557,7 +20619,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A691" t="s">
         <v>221</v>
       </c>
@@ -20580,7 +20642,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A692" t="s">
         <v>221</v>
       </c>
@@ -20603,7 +20665,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
         <v>221</v>
       </c>
@@ -20626,7 +20688,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A694" t="s">
         <v>217</v>
       </c>
@@ -20649,7 +20711,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A695" t="s">
         <v>217</v>
       </c>
@@ -20672,7 +20734,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
         <v>217</v>
       </c>
@@ -20695,7 +20757,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A697" t="s">
         <v>217</v>
       </c>
@@ -20718,7 +20780,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
         <v>213</v>
       </c>
@@ -20741,7 +20803,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
         <v>213</v>
       </c>
@@ -20764,7 +20826,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A700" t="s">
         <v>213</v>
       </c>
@@ -20787,7 +20849,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A701" t="s">
         <v>213</v>
       </c>
@@ -20810,7 +20872,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A702" t="s">
         <v>209</v>
       </c>
@@ -20833,7 +20895,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A703" t="s">
         <v>209</v>
       </c>
@@ -20856,7 +20918,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A704" t="s">
         <v>209</v>
       </c>
@@ -20879,7 +20941,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A705" t="s">
         <v>209</v>
       </c>
@@ -20902,7 +20964,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A706" t="s">
         <v>205</v>
       </c>
@@ -20925,7 +20987,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A707" t="s">
         <v>205</v>
       </c>
@@ -20948,7 +21010,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A708" t="s">
         <v>205</v>
       </c>
@@ -20971,7 +21033,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A709" t="s">
         <v>205</v>
       </c>
@@ -20994,7 +21056,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
         <v>201</v>
       </c>
@@ -21017,7 +21079,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
         <v>201</v>
       </c>
@@ -21040,7 +21102,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A712" t="s">
         <v>201</v>
       </c>
@@ -21063,7 +21125,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A713" t="s">
         <v>201</v>
       </c>
@@ -21086,7 +21148,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A714" t="s">
         <v>197</v>
       </c>
@@ -21109,7 +21171,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
         <v>197</v>
       </c>
@@ -21132,7 +21194,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
         <v>197</v>
       </c>
@@ -21155,7 +21217,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
         <v>197</v>
       </c>
@@ -21178,7 +21240,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
         <v>193</v>
       </c>
@@ -21201,7 +21263,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
         <v>193</v>
       </c>
@@ -21224,7 +21286,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
         <v>193</v>
       </c>
@@ -21247,7 +21309,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A721" t="s">
         <v>193</v>
       </c>
@@ -21270,7 +21332,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
         <v>189</v>
       </c>
@@ -21293,7 +21355,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
         <v>189</v>
       </c>
@@ -21316,7 +21378,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A724" t="s">
         <v>189</v>
       </c>
@@ -21339,7 +21401,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A725" t="s">
         <v>189</v>
       </c>
@@ -21362,7 +21424,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A726" t="s">
         <v>185</v>
       </c>
@@ -21385,7 +21447,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A727" t="s">
         <v>185</v>
       </c>
@@ -21408,7 +21470,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A728" t="s">
         <v>185</v>
       </c>
@@ -21431,7 +21493,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A729" t="s">
         <v>185</v>
       </c>
@@ -21454,7 +21516,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
         <v>181</v>
       </c>
@@ -21477,7 +21539,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A731" t="s">
         <v>181</v>
       </c>
@@ -21500,7 +21562,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A732" t="s">
         <v>181</v>
       </c>
@@ -21523,7 +21585,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A733" t="s">
         <v>181</v>
       </c>
@@ -21546,7 +21608,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A734" t="s">
         <v>177</v>
       </c>
@@ -21569,7 +21631,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A735" t="s">
         <v>177</v>
       </c>
@@ -21592,7 +21654,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A736" t="s">
         <v>177</v>
       </c>
@@ -21615,7 +21677,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A737" t="s">
         <v>177</v>
       </c>
@@ -21638,7 +21700,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A738" t="s">
         <v>173</v>
       </c>
@@ -21661,7 +21723,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A739" t="s">
         <v>173</v>
       </c>
@@ -21684,7 +21746,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A740" t="s">
         <v>173</v>
       </c>
@@ -21707,7 +21769,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A741" t="s">
         <v>173</v>
       </c>
@@ -21730,7 +21792,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A742" t="s">
         <v>169</v>
       </c>
@@ -21753,7 +21815,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A743" t="s">
         <v>169</v>
       </c>
@@ -21776,7 +21838,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A744" t="s">
         <v>169</v>
       </c>
@@ -21799,7 +21861,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A745" t="s">
         <v>169</v>
       </c>
@@ -21822,7 +21884,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A746" t="s">
         <v>165</v>
       </c>
@@ -21845,7 +21907,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A747" t="s">
         <v>165</v>
       </c>
@@ -21868,7 +21930,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A748" t="s">
         <v>165</v>
       </c>
@@ -21891,7 +21953,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A749" t="s">
         <v>165</v>
       </c>
@@ -21914,7 +21976,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A750" t="s">
         <v>161</v>
       </c>
@@ -21937,7 +21999,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A751" t="s">
         <v>161</v>
       </c>
@@ -21960,7 +22022,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A752" t="s">
         <v>161</v>
       </c>
@@ -21983,7 +22045,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A753" t="s">
         <v>161</v>
       </c>
@@ -22006,7 +22068,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A754" t="s">
         <v>157</v>
       </c>
@@ -22029,7 +22091,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A755" t="s">
         <v>157</v>
       </c>
@@ -22052,7 +22114,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A756" t="s">
         <v>157</v>
       </c>
@@ -22075,7 +22137,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A757" t="s">
         <v>157</v>
       </c>
@@ -22098,7 +22160,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A758" t="s">
         <v>153</v>
       </c>
@@ -22121,7 +22183,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A759" t="s">
         <v>153</v>
       </c>
@@ -22144,7 +22206,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A760" t="s">
         <v>153</v>
       </c>
@@ -22167,7 +22229,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A761" t="s">
         <v>153</v>
       </c>
@@ -22190,7 +22252,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A762" t="s">
         <v>149</v>
       </c>
@@ -22213,7 +22275,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A763" t="s">
         <v>149</v>
       </c>
@@ -22236,7 +22298,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A764" t="s">
         <v>149</v>
       </c>
@@ -22259,7 +22321,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A765" t="s">
         <v>149</v>
       </c>
@@ -22282,7 +22344,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A766" t="s">
         <v>145</v>
       </c>
@@ -22305,7 +22367,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A767" t="s">
         <v>145</v>
       </c>
@@ -22328,7 +22390,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A768" t="s">
         <v>145</v>
       </c>
@@ -22351,7 +22413,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A769" t="s">
         <v>145</v>
       </c>
@@ -22374,7 +22436,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A770" t="s">
         <v>141</v>
       </c>
@@ -22397,7 +22459,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A771" t="s">
         <v>141</v>
       </c>
@@ -22420,7 +22482,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A772" t="s">
         <v>141</v>
       </c>
@@ -22443,7 +22505,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A773" t="s">
         <v>141</v>
       </c>
@@ -22466,7 +22528,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A774" t="s">
         <v>137</v>
       </c>
@@ -22489,7 +22551,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A775" t="s">
         <v>137</v>
       </c>
@@ -22512,7 +22574,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A776" t="s">
         <v>137</v>
       </c>
@@ -22535,7 +22597,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A777" t="s">
         <v>137</v>
       </c>
@@ -22558,7 +22620,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A778" t="s">
         <v>133</v>
       </c>
@@ -22581,7 +22643,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A779" t="s">
         <v>133</v>
       </c>
@@ -22604,7 +22666,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A780" t="s">
         <v>133</v>
       </c>
@@ -22627,7 +22689,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A781" t="s">
         <v>133</v>
       </c>
@@ -22650,7 +22712,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A782" t="s">
         <v>129</v>
       </c>
@@ -22673,7 +22735,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A783" t="s">
         <v>129</v>
       </c>
@@ -22696,7 +22758,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A784" t="s">
         <v>129</v>
       </c>
@@ -22719,7 +22781,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A785" t="s">
         <v>129</v>
       </c>
@@ -22742,7 +22804,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A786" t="s">
         <v>125</v>
       </c>
@@ -22765,7 +22827,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A787" t="s">
         <v>125</v>
       </c>
@@ -22788,7 +22850,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A788" t="s">
         <v>125</v>
       </c>
@@ -22811,7 +22873,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A789" t="s">
         <v>125</v>
       </c>
@@ -22834,7 +22896,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A790" t="s">
         <v>121</v>
       </c>
@@ -22857,7 +22919,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A791" t="s">
         <v>121</v>
       </c>
@@ -22880,7 +22942,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A792" t="s">
         <v>121</v>
       </c>
@@ -22903,7 +22965,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A793" t="s">
         <v>121</v>
       </c>
@@ -22926,7 +22988,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A794" t="s">
         <v>117</v>
       </c>
@@ -22949,7 +23011,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A795" t="s">
         <v>117</v>
       </c>
@@ -22972,7 +23034,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A796" t="s">
         <v>117</v>
       </c>
@@ -22995,7 +23057,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A797" t="s">
         <v>117</v>
       </c>
@@ -23018,7 +23080,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A798" t="s">
         <v>113</v>
       </c>
@@ -23041,7 +23103,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A799" t="s">
         <v>113</v>
       </c>
@@ -23064,7 +23126,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A800" t="s">
         <v>113</v>
       </c>
@@ -23087,7 +23149,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A801" t="s">
         <v>113</v>
       </c>
@@ -23110,7 +23172,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A802" t="s">
         <v>109</v>
       </c>
@@ -23133,7 +23195,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A803" t="s">
         <v>109</v>
       </c>
@@ -23156,7 +23218,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A804" t="s">
         <v>109</v>
       </c>
@@ -23179,7 +23241,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A805" t="s">
         <v>109</v>
       </c>
@@ -23202,7 +23264,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A806" t="s">
         <v>105</v>
       </c>
@@ -23225,7 +23287,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A807" t="s">
         <v>105</v>
       </c>
@@ -23248,7 +23310,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A808" t="s">
         <v>105</v>
       </c>
@@ -23271,7 +23333,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A809" t="s">
         <v>105</v>
       </c>
@@ -23294,7 +23356,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A810" t="s">
         <v>101</v>
       </c>
@@ -23317,7 +23379,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A811" t="s">
         <v>101</v>
       </c>
@@ -23340,7 +23402,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A812" t="s">
         <v>101</v>
       </c>
@@ -23363,7 +23425,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A813" t="s">
         <v>101</v>
       </c>
@@ -23386,7 +23448,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A814" t="s">
         <v>97</v>
       </c>
@@ -23409,7 +23471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A815" t="s">
         <v>97</v>
       </c>
@@ -23432,7 +23494,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A816" t="s">
         <v>97</v>
       </c>
@@ -23455,7 +23517,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A817" t="s">
         <v>97</v>
       </c>
@@ -23478,7 +23540,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A818" t="s">
         <v>93</v>
       </c>
@@ -23501,7 +23563,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A819" t="s">
         <v>93</v>
       </c>
@@ -23524,7 +23586,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A820" t="s">
         <v>93</v>
       </c>
@@ -23547,7 +23609,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A821" t="s">
         <v>93</v>
       </c>
@@ -23570,7 +23632,7 @@
         <v>44453</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A822" t="s">
         <v>93</v>
       </c>
@@ -23593,7 +23655,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A823" t="s">
         <v>88</v>
       </c>
@@ -23616,7 +23678,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A824" t="s">
         <v>88</v>
       </c>
@@ -23639,7 +23701,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A825" t="s">
         <v>88</v>
       </c>
@@ -23662,7 +23724,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A826" t="s">
         <v>88</v>
       </c>
@@ -23685,7 +23747,7 @@
         <v>44453</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A827" t="s">
         <v>88</v>
       </c>
@@ -23708,7 +23770,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A828" t="s">
         <v>82</v>
       </c>
@@ -23731,7 +23793,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A829" t="s">
         <v>82</v>
       </c>
@@ -23754,7 +23816,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A830" t="s">
         <v>82</v>
       </c>
@@ -23777,7 +23839,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A831" t="s">
         <v>82</v>
       </c>
@@ -23800,7 +23862,7 @@
         <v>44453</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A832" t="s">
         <v>82</v>
       </c>
@@ -23823,7 +23885,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A833" t="s">
         <v>76</v>
       </c>
@@ -23846,7 +23908,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A834" t="s">
         <v>76</v>
       </c>
@@ -23869,7 +23931,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A835" t="s">
         <v>76</v>
       </c>
@@ -23892,7 +23954,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A836" t="s">
         <v>76</v>
       </c>
@@ -23915,7 +23977,7 @@
         <v>44453</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A837" t="s">
         <v>76</v>
       </c>
@@ -23938,7 +24000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A838" t="s">
         <v>69</v>
       </c>
@@ -23961,7 +24023,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A839" t="s">
         <v>69</v>
       </c>
@@ -23984,7 +24046,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A840" t="s">
         <v>69</v>
       </c>
@@ -24007,7 +24069,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A841" t="s">
         <v>69</v>
       </c>
@@ -24030,7 +24092,7 @@
         <v>44453</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A842" t="s">
         <v>69</v>
       </c>
